--- a/posesiones/1381275.xlsx
+++ b/posesiones/1381275.xlsx
@@ -1883,10 +1883,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1927,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1977,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2027,7 +2027,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2077,7 +2077,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>16</v>
@@ -2130,7 +2130,7 @@
         <v>1</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R8">
         <v>18</v>
@@ -2183,7 +2183,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R9">
         <v>19</v>
@@ -2236,7 +2236,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2286,7 +2286,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R11">
         <v>10</v>
@@ -2339,7 +2339,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2389,7 +2389,7 @@
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R13">
         <v>14</v>
@@ -2439,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2489,7 +2489,7 @@
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R15">
         <v>4</v>
@@ -2539,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2589,7 +2589,7 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R17">
         <v>5</v>
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2689,7 +2689,7 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R19">
         <v>8</v>
@@ -2739,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2789,7 +2789,7 @@
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R21">
         <v>16</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2889,7 +2889,7 @@
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R23">
         <v>18</v>
@@ -2939,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -3036,7 +3036,7 @@
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R26">
         <v>9</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3183,7 +3183,7 @@
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R29">
         <v>11</v>
@@ -3236,7 +3236,7 @@
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R30">
         <v>15</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3330,7 +3330,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3380,7 +3380,7 @@
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R33">
         <v>15</v>
@@ -3430,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3524,7 +3524,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3574,7 +3574,7 @@
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R37">
         <v>19</v>
@@ -3624,7 +3624,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3674,7 +3674,7 @@
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R39">
         <v>15</v>
@@ -3727,7 +3727,7 @@
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R40">
         <v>13</v>
@@ -3780,7 +3780,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3830,7 +3830,7 @@
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R42">
         <v>10</v>
@@ -3880,7 +3880,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3930,7 +3930,7 @@
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R44">
         <v>13</v>
@@ -3983,7 +3983,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -4030,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4080,7 +4080,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4127,7 +4127,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4177,7 +4177,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4227,7 +4227,7 @@
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R50">
         <v>15</v>
@@ -4280,7 +4280,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4330,7 +4330,7 @@
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R52">
         <v>7</v>
@@ -4383,7 +4383,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4433,7 +4433,7 @@
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R54">
         <v>18</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4533,7 +4533,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4583,7 +4583,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4633,7 +4633,7 @@
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R58">
         <v>20</v>
@@ -4683,7 +4683,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4730,7 +4730,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4780,7 +4780,7 @@
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R61">
         <v>15</v>
@@ -4830,7 +4830,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4880,7 +4880,7 @@
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R63">
         <v>16</v>
@@ -4930,7 +4930,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4977,7 +4977,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -5027,7 +5027,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5077,7 +5077,7 @@
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R67">
         <v>10</v>
@@ -5130,7 +5130,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5177,7 +5177,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5224,7 +5224,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -5271,7 +5271,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5318,7 +5318,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5368,7 +5368,7 @@
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R73">
         <v>9</v>
@@ -5421,7 +5421,7 @@
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R74">
         <v>17</v>
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R75">
         <v>20</v>
@@ -5524,7 +5524,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5571,7 +5571,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5618,7 +5618,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5665,7 +5665,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5712,7 +5712,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5759,7 +5759,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5856,7 +5856,7 @@
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R83">
         <v>23</v>
@@ -5909,7 +5909,7 @@
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R84">
         <v>17</v>
@@ -5959,7 +5959,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -6059,7 +6059,7 @@
         <v>1</v>
       </c>
       <c r="Q87">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R87">
         <v>20</v>
@@ -6109,7 +6109,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6156,7 +6156,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6203,7 +6203,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6253,7 +6253,7 @@
         <v>1</v>
       </c>
       <c r="Q91">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R91">
         <v>16</v>
@@ -6306,7 +6306,7 @@
         <v>1</v>
       </c>
       <c r="Q92">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R92">
         <v>16</v>
@@ -6356,7 +6356,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6403,7 +6403,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6450,7 +6450,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6497,7 +6497,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6544,7 +6544,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6594,7 +6594,7 @@
         <v>1</v>
       </c>
       <c r="Q98">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R98">
         <v>9</v>
@@ -6647,7 +6647,7 @@
         <v>1</v>
       </c>
       <c r="Q99">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R99">
         <v>12</v>
@@ -6700,7 +6700,7 @@
         <v>1</v>
       </c>
       <c r="Q100">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R100">
         <v>14</v>
@@ -6753,7 +6753,7 @@
         <v>1</v>
       </c>
       <c r="Q101">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R101">
         <v>13</v>
@@ -6806,7 +6806,7 @@
         <v>1</v>
       </c>
       <c r="Q102">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R102">
         <v>21</v>
@@ -6859,7 +6859,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6909,7 +6909,7 @@
         <v>1</v>
       </c>
       <c r="Q104">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R104">
         <v>6</v>
@@ -6959,7 +6959,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -7009,7 +7009,7 @@
         <v>1</v>
       </c>
       <c r="Q106">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R106">
         <v>28</v>
@@ -7059,7 +7059,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7106,7 +7106,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7153,7 +7153,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7200,7 +7200,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7247,7 +7247,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7294,7 +7294,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7341,7 +7341,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7388,7 +7388,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7435,7 +7435,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7482,7 +7482,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7529,7 +7529,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7576,7 +7576,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7626,7 +7626,7 @@
         <v>1</v>
       </c>
       <c r="Q119">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R119">
         <v>8</v>
@@ -7679,7 +7679,7 @@
         <v>1</v>
       </c>
       <c r="Q120">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R120">
         <v>1</v>
@@ -7723,10 +7723,10 @@
         <v>1</v>
       </c>
       <c r="P121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q121">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7773,7 +7773,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7820,7 +7820,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7861,10 +7861,10 @@
         <v>1</v>
       </c>
       <c r="P124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q124">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -7914,7 +7914,7 @@
         <v>1</v>
       </c>
       <c r="Q125">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R125">
         <v>12</v>
@@ -7967,7 +7967,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -8017,7 +8017,7 @@
         <v>1</v>
       </c>
       <c r="Q127">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R127">
         <v>23</v>
@@ -8070,7 +8070,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8120,7 +8120,7 @@
         <v>1</v>
       </c>
       <c r="Q129">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R129">
         <v>15</v>
@@ -8173,7 +8173,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8220,7 +8220,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8267,7 +8267,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8314,7 +8314,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8361,7 +8361,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8408,7 +8408,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8455,7 +8455,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8505,7 +8505,7 @@
         <v>1</v>
       </c>
       <c r="Q137">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R137">
         <v>22</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8605,7 +8605,7 @@
         <v>1</v>
       </c>
       <c r="Q139">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R139">
         <v>14</v>
@@ -8658,7 +8658,7 @@
         <v>1</v>
       </c>
       <c r="Q140">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R140">
         <v>18</v>
@@ -8708,7 +8708,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8758,7 +8758,7 @@
         <v>1</v>
       </c>
       <c r="Q142">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R142">
         <v>5</v>
@@ -8808,7 +8808,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8858,7 +8858,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -8908,7 +8908,7 @@
         <v>1</v>
       </c>
       <c r="Q145">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R145">
         <v>7</v>
@@ -8958,7 +8958,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -9008,7 +9008,7 @@
         <v>1</v>
       </c>
       <c r="Q147">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R147">
         <v>16</v>
@@ -9061,7 +9061,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9111,7 +9111,7 @@
         <v>1</v>
       </c>
       <c r="Q149">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R149">
         <v>18</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9208,7 +9208,7 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -9255,7 +9255,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9302,7 +9302,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9352,7 +9352,7 @@
         <v>1</v>
       </c>
       <c r="Q154">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R154">
         <v>11</v>
@@ -9405,7 +9405,7 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9455,7 +9455,7 @@
         <v>1</v>
       </c>
       <c r="Q156">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R156">
         <v>9</v>
@@ -9508,7 +9508,7 @@
         <v>1</v>
       </c>
       <c r="Q157">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R157">
         <v>14</v>
@@ -9561,7 +9561,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9608,7 +9608,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9658,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9708,7 +9708,7 @@
         <v>1</v>
       </c>
       <c r="Q161">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R161">
         <v>16</v>
@@ -9755,7 +9755,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9802,7 +9802,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9849,7 +9849,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -9899,7 +9899,7 @@
         <v>1</v>
       </c>
       <c r="Q165">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R165">
         <v>20</v>
@@ -9949,7 +9949,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -9999,7 +9999,7 @@
         <v>1</v>
       </c>
       <c r="Q167">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R167">
         <v>13</v>
@@ -10049,7 +10049,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -10096,7 +10096,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10146,7 +10146,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10196,7 +10196,7 @@
         <v>1</v>
       </c>
       <c r="Q171">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R171">
         <v>20</v>
@@ -10249,7 +10249,7 @@
         <v>1</v>
       </c>
       <c r="Q172">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R172">
         <v>22</v>
@@ -10299,7 +10299,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10349,7 +10349,7 @@
         <v>1</v>
       </c>
       <c r="Q174">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R174">
         <v>5</v>
@@ -10399,7 +10399,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10446,7 +10446,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10496,7 +10496,7 @@
         <v>1</v>
       </c>
       <c r="Q177">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R177">
         <v>13</v>
@@ -10546,7 +10546,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10596,7 +10596,7 @@
         <v>1</v>
       </c>
       <c r="Q179">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R179">
         <v>10</v>
@@ -10649,7 +10649,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10699,7 +10699,7 @@
         <v>1</v>
       </c>
       <c r="Q181">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R181">
         <v>6</v>
@@ -10749,7 +10749,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10796,7 +10796,7 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -10843,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10893,7 +10893,7 @@
         <v>1</v>
       </c>
       <c r="Q185">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R185">
         <v>0</v>
@@ -10946,7 +10946,7 @@
         <v>1</v>
       </c>
       <c r="Q186">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R186">
         <v>24</v>
@@ -10996,7 +10996,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -11046,7 +11046,7 @@
         <v>1</v>
       </c>
       <c r="Q188">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R188">
         <v>19</v>
@@ -11099,7 +11099,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11149,7 +11149,7 @@
         <v>1</v>
       </c>
       <c r="Q190">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R190">
         <v>5</v>
@@ -11199,7 +11199,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11243,7 +11243,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11290,7 +11290,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11337,7 +11337,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11387,7 +11387,7 @@
         <v>1</v>
       </c>
       <c r="Q195">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R195">
         <v>14</v>
@@ -11440,7 +11440,7 @@
         <v>1</v>
       </c>
       <c r="Q196">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R196">
         <v>8</v>
@@ -11493,7 +11493,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11543,7 +11543,7 @@
         <v>1</v>
       </c>
       <c r="Q198">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R198">
         <v>21</v>
@@ -11596,7 +11596,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11646,7 +11646,7 @@
         <v>1</v>
       </c>
       <c r="Q200">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R200">
         <v>11</v>
@@ -11699,7 +11699,7 @@
         <v>1</v>
       </c>
       <c r="Q201">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R201">
         <v>11</v>
@@ -11749,7 +11749,7 @@
         <v>0</v>
       </c>
       <c r="Q202">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="203" spans="1:18">
@@ -11799,7 +11799,7 @@
         <v>1</v>
       </c>
       <c r="Q203">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R203">
         <v>6</v>
@@ -11849,7 +11849,7 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -11899,7 +11899,7 @@
         <v>1</v>
       </c>
       <c r="Q205">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R205">
         <v>5</v>
@@ -11952,7 +11952,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -12002,7 +12002,7 @@
         <v>1</v>
       </c>
       <c r="Q207">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R207">
         <v>19</v>
@@ -12055,7 +12055,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -12105,7 +12105,7 @@
         <v>1</v>
       </c>
       <c r="Q209">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="R209">
         <v>16</v>
@@ -12155,7 +12155,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12202,7 +12202,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12249,7 +12249,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12296,7 +12296,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12343,7 +12343,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12390,7 +12390,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12437,7 +12437,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12484,7 +12484,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12531,7 +12531,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12581,7 +12581,7 @@
         <v>1</v>
       </c>
       <c r="Q219">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="R219">
         <v>20</v>
@@ -12631,7 +12631,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12678,7 +12678,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12725,7 +12725,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12772,7 +12772,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12819,7 +12819,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12869,7 +12869,7 @@
         <v>1</v>
       </c>
       <c r="Q225">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="R225">
         <v>0</v>
@@ -12922,7 +12922,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -12972,7 +12972,7 @@
         <v>1</v>
       </c>
       <c r="Q227">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="R227">
         <v>19</v>
@@ -13025,7 +13025,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -13072,7 +13072,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -13119,7 +13119,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13166,7 +13166,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13213,7 +13213,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13263,7 +13263,7 @@
         <v>1</v>
       </c>
       <c r="Q233">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="R233">
         <v>21</v>
@@ -13316,7 +13316,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13363,7 +13363,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13410,7 +13410,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13457,7 +13457,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13507,7 +13507,7 @@
         <v>1</v>
       </c>
       <c r="Q238">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="R238">
         <v>10</v>
@@ -13557,7 +13557,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13604,7 +13604,7 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13651,7 +13651,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13698,7 +13698,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13745,7 +13745,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13795,7 +13795,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13842,7 +13842,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13889,7 +13889,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -13936,7 +13936,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -13986,7 +13986,7 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -14036,7 +14036,7 @@
         <v>1</v>
       </c>
       <c r="Q249">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="R249">
         <v>45</v>
@@ -14089,7 +14089,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -14136,7 +14136,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14183,7 +14183,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14230,7 +14230,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14277,7 +14277,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14327,7 +14327,7 @@
         <v>1</v>
       </c>
       <c r="Q255">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="R255">
         <v>15</v>
@@ -14377,7 +14377,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14424,7 +14424,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14471,7 +14471,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14518,7 +14518,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14568,7 +14568,7 @@
         <v>1</v>
       </c>
       <c r="Q260">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="R260">
         <v>1</v>
@@ -14612,10 +14612,10 @@
         <v>1</v>
       </c>
       <c r="P261" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q261">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14662,7 +14662,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14709,7 +14709,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14756,7 +14756,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14803,7 +14803,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14850,7 +14850,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14897,7 +14897,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -14944,7 +14944,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -14991,7 +14991,7 @@
         <v>0</v>
       </c>
       <c r="Q269">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -15038,7 +15038,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -15085,7 +15085,7 @@
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -15132,7 +15132,7 @@
         <v>0</v>
       </c>
       <c r="Q272">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -15179,7 +15179,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15220,10 +15220,10 @@
         <v>1</v>
       </c>
       <c r="P274" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q274">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15273,7 +15273,7 @@
         <v>1</v>
       </c>
       <c r="Q275">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R275">
         <v>13</v>
@@ -15326,7 +15326,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15376,7 +15376,7 @@
         <v>1</v>
       </c>
       <c r="Q277">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R277">
         <v>17</v>
@@ -15429,7 +15429,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15476,7 +15476,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15523,7 +15523,7 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15573,7 +15573,7 @@
         <v>1</v>
       </c>
       <c r="Q281">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R281">
         <v>24</v>
@@ -15623,7 +15623,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15670,7 +15670,7 @@
         <v>0</v>
       </c>
       <c r="Q283">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -15717,7 +15717,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15767,7 +15767,7 @@
         <v>1</v>
       </c>
       <c r="Q285">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R285">
         <v>6</v>
@@ -15820,7 +15820,7 @@
         <v>1</v>
       </c>
       <c r="Q286">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R286">
         <v>12</v>
@@ -15873,7 +15873,7 @@
         <v>0</v>
       </c>
       <c r="Q287">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -15923,7 +15923,7 @@
         <v>1</v>
       </c>
       <c r="Q288">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R288">
         <v>8</v>
@@ -15976,7 +15976,7 @@
         <v>0</v>
       </c>
       <c r="Q289">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -16026,7 +16026,7 @@
         <v>1</v>
       </c>
       <c r="Q290">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R290">
         <v>8</v>
@@ -16076,7 +16076,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -16126,7 +16126,7 @@
         <v>1</v>
       </c>
       <c r="Q292">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R292">
         <v>17</v>
@@ -16176,7 +16176,7 @@
         <v>0</v>
       </c>
       <c r="Q293">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="294" spans="1:18">
@@ -16223,7 +16223,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16270,7 +16270,7 @@
         <v>0</v>
       </c>
       <c r="Q295">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -16317,7 +16317,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16364,7 +16364,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -16414,7 +16414,7 @@
         <v>1</v>
       </c>
       <c r="Q298">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R298">
         <v>32</v>
@@ -16467,7 +16467,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16517,7 +16517,7 @@
         <v>1</v>
       </c>
       <c r="Q300">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R300">
         <v>7</v>
@@ -16567,7 +16567,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16617,7 +16617,7 @@
         <v>1</v>
       </c>
       <c r="Q302">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R302">
         <v>19</v>
@@ -16667,7 +16667,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16714,7 +16714,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16761,7 +16761,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16808,7 +16808,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16855,7 +16855,7 @@
         <v>0</v>
       </c>
       <c r="Q307">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -16902,7 +16902,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -16949,7 +16949,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -16996,7 +16996,7 @@
         <v>0</v>
       </c>
       <c r="Q310">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -17046,7 +17046,7 @@
         <v>1</v>
       </c>
       <c r="Q311">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R311">
         <v>14</v>
@@ -17096,7 +17096,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17146,7 +17146,7 @@
         <v>1</v>
       </c>
       <c r="Q313">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R313">
         <v>10</v>
@@ -17196,7 +17196,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17246,7 +17246,7 @@
         <v>1</v>
       </c>
       <c r="Q315">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R315">
         <v>17</v>
@@ -17296,7 +17296,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17343,7 +17343,7 @@
         <v>0</v>
       </c>
       <c r="Q317">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -17390,7 +17390,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17437,7 +17437,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17487,7 +17487,7 @@
         <v>1</v>
       </c>
       <c r="Q320">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R320">
         <v>7</v>
@@ -17540,7 +17540,7 @@
         <v>1</v>
       </c>
       <c r="Q321">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R321">
         <v>15</v>
@@ -17593,7 +17593,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17640,7 +17640,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17687,7 +17687,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17734,7 +17734,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17781,7 +17781,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17828,7 +17828,7 @@
         <v>0</v>
       </c>
       <c r="Q327">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -17878,7 +17878,7 @@
         <v>1</v>
       </c>
       <c r="Q328">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R328">
         <v>26</v>
@@ -17931,7 +17931,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -17981,7 +17981,7 @@
         <v>1</v>
       </c>
       <c r="Q330">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R330">
         <v>11</v>
@@ -18031,7 +18031,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -18078,7 +18078,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18125,7 +18125,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18175,7 +18175,7 @@
         <v>1</v>
       </c>
       <c r="Q334">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R334">
         <v>22</v>
@@ -18228,7 +18228,7 @@
         <v>1</v>
       </c>
       <c r="Q335">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R335">
         <v>11</v>
@@ -18278,7 +18278,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18328,7 +18328,7 @@
         <v>1</v>
       </c>
       <c r="Q337">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R337">
         <v>18</v>
@@ -18378,7 +18378,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -18428,7 +18428,7 @@
         <v>1</v>
       </c>
       <c r="Q339">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R339">
         <v>4</v>
@@ -18478,7 +18478,7 @@
         <v>0</v>
       </c>
       <c r="Q340">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -18522,7 +18522,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18572,7 +18572,7 @@
         <v>1</v>
       </c>
       <c r="Q342">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R342">
         <v>14</v>
@@ -18625,7 +18625,7 @@
         <v>1</v>
       </c>
       <c r="Q343">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R343">
         <v>14</v>
@@ -18675,7 +18675,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18722,7 +18722,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18775,7 +18775,7 @@
         <v>1</v>
       </c>
       <c r="Q346">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R346">
         <v>23</v>
@@ -18825,7 +18825,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18875,7 +18875,7 @@
         <v>1</v>
       </c>
       <c r="Q348">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R348">
         <v>12</v>
@@ -18928,7 +18928,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -18975,7 +18975,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -19025,7 +19025,7 @@
         <v>0</v>
       </c>
       <c r="Q351">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -19075,7 +19075,7 @@
         <v>1</v>
       </c>
       <c r="Q352">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R352">
         <v>27</v>
@@ -19128,7 +19128,7 @@
         <v>0</v>
       </c>
       <c r="Q353">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -19178,7 +19178,7 @@
         <v>1</v>
       </c>
       <c r="Q354">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R354">
         <v>2</v>
@@ -19231,7 +19231,7 @@
         <v>1</v>
       </c>
       <c r="Q355">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R355">
         <v>14</v>
@@ -19284,7 +19284,7 @@
         <v>1</v>
       </c>
       <c r="Q356">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="R356">
         <v>9</v>
@@ -19337,7 +19337,7 @@
         <v>1</v>
       </c>
       <c r="Q357">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="R357">
         <v>14</v>
@@ -19387,7 +19387,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19437,7 +19437,7 @@
         <v>1</v>
       </c>
       <c r="Q359">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="R359">
         <v>15</v>
@@ -19490,7 +19490,7 @@
         <v>1</v>
       </c>
       <c r="Q360">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="R360">
         <v>12</v>
@@ -19543,7 +19543,7 @@
         <v>0</v>
       </c>
       <c r="Q361">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -19593,7 +19593,7 @@
         <v>1</v>
       </c>
       <c r="Q362">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="R362">
         <v>11</v>
@@ -19643,7 +19643,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19690,7 +19690,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19737,7 +19737,7 @@
         <v>0</v>
       </c>
       <c r="Q365">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19784,7 +19784,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19834,7 +19834,7 @@
         <v>1</v>
       </c>
       <c r="Q367">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="R367">
         <v>0</v>
@@ -19884,7 +19884,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -19931,7 +19931,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -19981,7 +19981,7 @@
         <v>1</v>
       </c>
       <c r="Q370">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="R370">
         <v>10</v>
@@ -20031,7 +20031,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -20078,7 +20078,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -20125,7 +20125,7 @@
         <v>0</v>
       </c>
       <c r="Q373">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -20175,7 +20175,7 @@
         <v>1</v>
       </c>
       <c r="Q374">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="R374">
         <v>20</v>
@@ -20228,7 +20228,7 @@
         <v>1</v>
       </c>
       <c r="Q375">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="R375">
         <v>18</v>
@@ -20281,7 +20281,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20328,7 +20328,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20378,7 +20378,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20428,7 +20428,7 @@
         <v>1</v>
       </c>
       <c r="Q379">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="R379">
         <v>31</v>
@@ -20481,7 +20481,7 @@
         <v>1</v>
       </c>
       <c r="Q380">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="R380">
         <v>19</v>
@@ -20534,7 +20534,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20584,7 +20584,7 @@
         <v>1</v>
       </c>
       <c r="Q382">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="R382">
         <v>13</v>
@@ -20628,10 +20628,10 @@
         <v>1</v>
       </c>
       <c r="P383" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q383">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20678,7 +20678,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20725,7 +20725,7 @@
         <v>0</v>
       </c>
       <c r="Q385">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -20772,7 +20772,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20819,7 +20819,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20866,7 +20866,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20913,7 +20913,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -20954,10 +20954,10 @@
         <v>1</v>
       </c>
       <c r="P390" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q390">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -21007,7 +21007,7 @@
         <v>1</v>
       </c>
       <c r="Q391">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R391">
         <v>12</v>
@@ -21060,7 +21060,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -21110,7 +21110,7 @@
         <v>1</v>
       </c>
       <c r="Q393">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R393">
         <v>18</v>
@@ -21160,7 +21160,7 @@
         <v>0</v>
       </c>
       <c r="Q394">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -21210,7 +21210,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21260,7 +21260,7 @@
         <v>1</v>
       </c>
       <c r="Q396">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R396">
         <v>7</v>
@@ -21313,7 +21313,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21363,7 +21363,7 @@
         <v>1</v>
       </c>
       <c r="Q398">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R398">
         <v>7</v>
@@ -21416,7 +21416,7 @@
         <v>1</v>
       </c>
       <c r="Q399">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R399">
         <v>23</v>
@@ -21466,7 +21466,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21516,7 +21516,7 @@
         <v>1</v>
       </c>
       <c r="Q401">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R401">
         <v>23</v>
@@ -21569,7 +21569,7 @@
         <v>1</v>
       </c>
       <c r="Q402">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R402">
         <v>16</v>
@@ -21622,7 +21622,7 @@
         <v>1</v>
       </c>
       <c r="Q403">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R403">
         <v>20</v>
@@ -21675,7 +21675,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21722,7 +21722,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21775,7 +21775,7 @@
         <v>1</v>
       </c>
       <c r="Q406">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R406">
         <v>9</v>
@@ -21825,7 +21825,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21872,7 +21872,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -21919,7 +21919,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -21969,7 +21969,7 @@
         <v>1</v>
       </c>
       <c r="Q410">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R410">
         <v>12</v>
@@ -22019,7 +22019,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -22069,7 +22069,7 @@
         <v>1</v>
       </c>
       <c r="Q412">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R412">
         <v>22</v>
@@ -22119,7 +22119,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22166,7 +22166,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22216,7 +22216,7 @@
         <v>1</v>
       </c>
       <c r="Q415">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R415">
         <v>9</v>
@@ -22266,7 +22266,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22310,7 +22310,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22360,7 +22360,7 @@
         <v>1</v>
       </c>
       <c r="Q418">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R418">
         <v>14</v>
@@ -22413,7 +22413,7 @@
         <v>1</v>
       </c>
       <c r="Q419">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R419">
         <v>18</v>
@@ -22463,7 +22463,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22510,7 +22510,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22557,7 +22557,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22604,7 +22604,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22651,7 +22651,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22698,7 +22698,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22748,7 +22748,7 @@
         <v>1</v>
       </c>
       <c r="Q426">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R426">
         <v>12</v>
@@ -22798,7 +22798,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22848,7 +22848,7 @@
         <v>1</v>
       </c>
       <c r="Q428">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R428">
         <v>19</v>
@@ -22901,7 +22901,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -22948,7 +22948,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -22995,7 +22995,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -23042,7 +23042,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -23092,7 +23092,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -23139,7 +23139,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23186,7 +23186,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23233,7 +23233,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23283,7 +23283,7 @@
         <v>1</v>
       </c>
       <c r="Q437">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R437">
         <v>23</v>
@@ -23336,7 +23336,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23383,7 +23383,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23430,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="Q440">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="441" spans="1:18">
@@ -23477,7 +23477,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23524,7 +23524,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23574,7 +23574,7 @@
         <v>1</v>
       </c>
       <c r="Q443">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R443">
         <v>6</v>
@@ -23627,7 +23627,7 @@
         <v>1</v>
       </c>
       <c r="Q444">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R444">
         <v>2</v>
@@ -23677,7 +23677,7 @@
         <v>0</v>
       </c>
       <c r="Q445">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -23727,7 +23727,7 @@
         <v>1</v>
       </c>
       <c r="Q446">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R446">
         <v>6</v>
@@ -23777,7 +23777,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23827,7 +23827,7 @@
         <v>1</v>
       </c>
       <c r="Q448">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R448">
         <v>26</v>
@@ -23880,7 +23880,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -23930,7 +23930,7 @@
         <v>1</v>
       </c>
       <c r="Q450">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R450">
         <v>5</v>
@@ -23980,7 +23980,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -24027,7 +24027,7 @@
         <v>1</v>
       </c>
       <c r="Q452">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R452">
         <v>24</v>
@@ -24080,7 +24080,7 @@
         <v>1</v>
       </c>
       <c r="Q453">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R453">
         <v>16</v>
@@ -24133,7 +24133,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24230,7 +24230,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24280,7 +24280,7 @@
         <v>1</v>
       </c>
       <c r="Q457">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R457">
         <v>28</v>
@@ -24333,7 +24333,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24380,7 +24380,7 @@
         <v>0</v>
       </c>
       <c r="Q459">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Q460">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="461" spans="1:18">
@@ -24480,7 +24480,7 @@
         <v>1</v>
       </c>
       <c r="Q461">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R461">
         <v>13</v>
@@ -24533,7 +24533,7 @@
         <v>1</v>
       </c>
       <c r="Q462">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R462">
         <v>14</v>
@@ -24583,7 +24583,7 @@
         <v>0</v>
       </c>
       <c r="Q463">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="464" spans="1:18">
@@ -24630,7 +24630,7 @@
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -24677,7 +24677,7 @@
         <v>0</v>
       </c>
       <c r="Q465">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -24727,7 +24727,7 @@
         <v>1</v>
       </c>
       <c r="Q466">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R466">
         <v>18</v>
@@ -24777,7 +24777,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24827,7 +24827,7 @@
         <v>1</v>
       </c>
       <c r="Q468">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="R468">
         <v>27</v>
@@ -24877,7 +24877,7 @@
         <v>0</v>
       </c>
       <c r="Q469">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="470" spans="1:18">
@@ -24924,7 +24924,7 @@
         <v>0</v>
       </c>
       <c r="Q470">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -24974,7 +24974,7 @@
         <v>0</v>
       </c>
       <c r="Q471">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="472" spans="1:18">
@@ -25021,7 +25021,7 @@
         <v>0</v>
       </c>
       <c r="Q472">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="473" spans="1:18">
@@ -25068,7 +25068,7 @@
         <v>0</v>
       </c>
       <c r="Q473">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -25115,7 +25115,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -25165,7 +25165,7 @@
         <v>1</v>
       </c>
       <c r="Q475">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="R475">
         <v>21</v>
@@ -25215,7 +25215,7 @@
         <v>0</v>
       </c>
       <c r="Q476">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -25262,7 +25262,7 @@
         <v>0</v>
       </c>
       <c r="Q477">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="478" spans="1:18">
@@ -25309,7 +25309,7 @@
         <v>0</v>
       </c>
       <c r="Q478">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="479" spans="1:18">
@@ -25356,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q479">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="480" spans="1:18">
@@ -25406,7 +25406,7 @@
         <v>1</v>
       </c>
       <c r="Q480">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="R480">
         <v>16</v>
@@ -25459,7 +25459,7 @@
         <v>1</v>
       </c>
       <c r="Q481">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="R481">
         <v>19</v>
@@ -25509,7 +25509,7 @@
         <v>0</v>
       </c>
       <c r="Q482">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="483" spans="1:18">
@@ -25556,7 +25556,7 @@
         <v>0</v>
       </c>
       <c r="Q483">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="484" spans="1:18">
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="Q484">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="485" spans="1:18">
@@ -25650,7 +25650,7 @@
         <v>0</v>
       </c>
       <c r="Q485">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="486" spans="1:18">
@@ -25697,7 +25697,7 @@
         <v>0</v>
       </c>
       <c r="Q486">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="487" spans="1:18">
@@ -25747,7 +25747,7 @@
         <v>1</v>
       </c>
       <c r="Q487">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="R487">
         <v>12</v>
@@ -25800,7 +25800,7 @@
         <v>1</v>
       </c>
       <c r="Q488">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="R488">
         <v>16</v>
@@ -25853,7 +25853,7 @@
         <v>1</v>
       </c>
       <c r="Q489">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="R489">
         <v>5</v>
@@ -25903,7 +25903,7 @@
         <v>0</v>
       </c>
       <c r="Q490">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="491" spans="1:18">
@@ -25953,7 +25953,7 @@
         <v>1</v>
       </c>
       <c r="Q491">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="R491">
         <v>12</v>
@@ -26003,7 +26003,7 @@
         <v>0</v>
       </c>
       <c r="Q492">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="493" spans="1:18">
@@ -26047,7 +26047,7 @@
         <v>0</v>
       </c>
       <c r="Q493">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="494" spans="1:18">
@@ -26094,7 +26094,7 @@
         <v>0</v>
       </c>
       <c r="Q494">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="495" spans="1:18">
@@ -26141,7 +26141,7 @@
         <v>0</v>
       </c>
       <c r="Q495">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="496" spans="1:18">
@@ -26188,7 +26188,7 @@
         <v>0</v>
       </c>
       <c r="Q496">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="497" spans="1:18">
@@ -26235,7 +26235,7 @@
         <v>0</v>
       </c>
       <c r="Q497">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="498" spans="1:18">
@@ -26282,7 +26282,7 @@
         <v>0</v>
       </c>
       <c r="Q498">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="499" spans="1:18">
@@ -26332,7 +26332,7 @@
         <v>1</v>
       </c>
       <c r="Q499">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="R499">
         <v>13</v>
@@ -26379,7 +26379,7 @@
         <v>0</v>
       </c>
       <c r="Q500">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="501" spans="1:18">
@@ -26426,7 +26426,7 @@
         <v>0</v>
       </c>
       <c r="Q501">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="502" spans="1:18">
@@ -26473,7 +26473,7 @@
         <v>0</v>
       </c>
       <c r="Q502">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="503" spans="1:18">
@@ -26520,7 +26520,7 @@
         <v>0</v>
       </c>
       <c r="Q503">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="504" spans="1:18">
@@ -26567,7 +26567,7 @@
         <v>0</v>
       </c>
       <c r="Q504">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="505" spans="1:18">
@@ -26617,7 +26617,7 @@
         <v>1</v>
       </c>
       <c r="Q505">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="R505">
         <v>22</v>
@@ -26664,7 +26664,7 @@
         <v>0</v>
       </c>
       <c r="Q506">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="507" spans="1:18">
@@ -26711,7 +26711,7 @@
         <v>0</v>
       </c>
       <c r="Q507">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="508" spans="1:18">
@@ -26758,7 +26758,7 @@
         <v>0</v>
       </c>
       <c r="Q508">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="509" spans="1:18">
@@ -26808,7 +26808,7 @@
         <v>1</v>
       </c>
       <c r="Q509">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="R509">
         <v>3</v>
@@ -26861,7 +26861,7 @@
         <v>0</v>
       </c>
       <c r="Q510">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="511" spans="1:18">
@@ -26908,7 +26908,7 @@
         <v>0</v>
       </c>
       <c r="Q511">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="512" spans="1:18">
@@ -26955,7 +26955,7 @@
         <v>0</v>
       </c>
       <c r="Q512">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="513" spans="1:18">
@@ -27002,7 +27002,7 @@
         <v>0</v>
       </c>
       <c r="Q513">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="514" spans="1:18">
@@ -27052,7 +27052,7 @@
         <v>1</v>
       </c>
       <c r="Q514">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="R514">
         <v>2</v>
@@ -27105,7 +27105,7 @@
         <v>1</v>
       </c>
       <c r="Q515">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="R515">
         <v>5</v>
@@ -27155,7 +27155,7 @@
         <v>0</v>
       </c>
       <c r="Q516">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="517" spans="1:18">
@@ -27202,7 +27202,7 @@
         <v>0</v>
       </c>
       <c r="Q517">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="518" spans="1:18">
@@ -27249,7 +27249,7 @@
         <v>0</v>
       </c>
       <c r="Q518">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="519" spans="1:18">
@@ -27299,7 +27299,7 @@
         <v>1</v>
       </c>
       <c r="Q519">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="R519">
         <v>2</v>
@@ -27352,7 +27352,7 @@
         <v>1</v>
       </c>
       <c r="Q520">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="R520">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>1</v>
       </c>
       <c r="P521" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q521">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="522" spans="1:18">
@@ -27440,7 +27440,7 @@
         <v>0</v>
       </c>
       <c r="Q522">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
